--- a/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple1.xlsx
+++ b/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98782785-1100-4CF2-9F85-6C70635BB614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84F5904-4A52-46A8-8321-6EEAFA917480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S3c0328h07,S4aH5,S1aH6,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S1aH3,S3c0328h16,S6d1217h15,S6aH5,S6d1217h10,S6d1217h13,S1b0119h10,S1b0119h17,S3c0328h17,S4aH2,S3aH3,S6d1217h16,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4,S1b0119h15,S3aH2,S3c0328h18,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11</t>
-  </si>
-  <si>
-    <t>S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S6aH8,S6d1217h01,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7,S1b0119h22,S3c0328h04,S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S3c0328h06,S4aH8,S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21,S3c0328h03,S6d1217h24,S1b0119h06,S1b0119h21,S2aH8,S3c0328h21,S4aH1,S6aH1,S1aH1,S2aH7,S3c0328h01,S1b0119h19,S6d1217h19,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S3c0328h05,S3c0328h23</t>
+    <t>S1aH3,S3c0328h16,S6d1217h15,S3aH3,S6d1217h16,S6aH5,S6d1217h10,S6d1217h13,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S3c0328h07,S4aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3,S1b0119h15,S3aH2,S3c0328h18,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1aH6,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4,S1b0119h10,S1b0119h17,S3c0328h17,S4aH2</t>
+  </si>
+  <si>
+    <t>S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S3c0328h03,S6d1217h24,S3c0328h06,S4aH8,S3c0328h23,S3c0328h05,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S1b0119h22,S3c0328h04,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S1aH1,S2aH7,S3c0328h01,S3c0328h21,S4aH1,S6aH1,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S1b0119h06,S1b0119h21,S2aH8,S6aH8,S6d1217h01,S1b0119h19,S6d1217h19,S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S6aH8,S6d1217h01,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7,S1b0119h22,S3c0328h04,S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S3c0328h06,S4aH8,S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21,S3c0328h03,S6d1217h24,S1b0119h06,S1b0119h21,S2aH8,S3c0328h21,S4aH1,S6aH1,S1aH1,S2aH7,S3c0328h01,S1b0119h19,S6d1217h19,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S3c0328h05,S3c0328h23</v>
+        <v>S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S3c0328h03,S6d1217h24,S3c0328h06,S4aH8,S3c0328h23,S3c0328h05,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S1b0119h22,S3c0328h04,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S1aH1,S2aH7,S3c0328h01,S3c0328h21,S4aH1,S6aH1,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S1b0119h06,S1b0119h21,S2aH8,S6aH8,S6d1217h01,S1b0119h19,S6d1217h19,S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S3c0328h07,S4aH5,S1aH6,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S1aH3,S3c0328h16,S6d1217h15,S6aH5,S6d1217h10,S6d1217h13,S1b0119h10,S1b0119h17,S3c0328h17,S4aH2,S3aH3,S6d1217h16,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4,S1b0119h15,S3aH2,S3c0328h18,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11</v>
+        <v>S1aH3,S3c0328h16,S6d1217h15,S3aH3,S6d1217h16,S6aH5,S6d1217h10,S6d1217h13,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S3c0328h07,S4aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3,S1b0119h15,S3aH2,S3c0328h18,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1aH6,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4,S1b0119h10,S1b0119h17,S3c0328h17,S4aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B34751B-5043-48B1-9BEF-6A07581B1611}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABD014D-7B64-4AD8-930A-CBF710D825CD}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DDC083-A0B6-4FD9-852A-5FD60EC0D42C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18262FA-FAE5-4516-BE53-2F000DEFF155}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>171</v>
       </c>
       <c r="M4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N4">
-        <v>9.560747348173812E-2</v>
+        <v>0.10830924286565957</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2980,10 +2980,10 @@
         <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>0.10847507741355956</v>
+        <v>0.53877330642271404</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N6">
-        <v>0.10830924286565957</v>
+        <v>0.24201623957307244</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>171</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="N7">
-        <v>0.24201623957307244</v>
+        <v>9.560747348173812E-2</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>171</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>0.53877330642271426</v>
+        <v>0.10847507741355956</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3FE0B74-3E26-42F1-9785-76F2DAF753E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693AB5CB-73E8-42AE-A20F-77328987698F}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple1.xlsx
+++ b/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84F5904-4A52-46A8-8321-6EEAFA917480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F8F9EF-E5B7-42A0-80A6-EDAECF7FCF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S3c0328h16,S6d1217h15,S3aH3,S6d1217h16,S6aH5,S6d1217h10,S6d1217h13,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S3c0328h07,S4aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3,S1b0119h15,S3aH2,S3c0328h18,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1aH6,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4,S1b0119h10,S1b0119h17,S3c0328h17,S4aH2</t>
-  </si>
-  <si>
-    <t>S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S3c0328h03,S6d1217h24,S3c0328h06,S4aH8,S3c0328h23,S3c0328h05,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S1b0119h22,S3c0328h04,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S1aH1,S2aH7,S3c0328h01,S3c0328h21,S4aH1,S6aH1,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S1b0119h06,S1b0119h21,S2aH8,S6aH8,S6d1217h01,S1b0119h19,S6d1217h19,S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21</t>
+    <t>S6aH5,S6d1217h10,S6d1217h13,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4,S1b0119h10,S1b0119h17,S3c0328h17,S4aH2,S3c0328h07,S4aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1aH3,S3c0328h16,S6d1217h15,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S1b0119h15,S3aH2,S3c0328h18,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S3aH3,S6d1217h16,S1aH6</t>
+  </si>
+  <si>
+    <t>S3c0328h06,S4aH8,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7,S1b0119h19,S6d1217h19,S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21,S1b0119h06,S1b0119h21,S2aH8,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S1b0119h22,S3c0328h04,S3c0328h23,S1aH1,S2aH7,S3c0328h01,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S3c0328h05,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S3c0328h21,S4aH1,S6aH1,S3c0328h03,S6d1217h24,S6aH8,S6d1217h01</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S3c0328h03,S6d1217h24,S3c0328h06,S4aH8,S3c0328h23,S3c0328h05,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S1b0119h22,S3c0328h04,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S1aH1,S2aH7,S3c0328h01,S3c0328h21,S4aH1,S6aH1,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S1b0119h06,S1b0119h21,S2aH8,S6aH8,S6d1217h01,S1b0119h19,S6d1217h19,S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21</v>
+        <v>S3c0328h06,S4aH8,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7,S1b0119h19,S6d1217h19,S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21,S1b0119h06,S1b0119h21,S2aH8,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S1b0119h22,S3c0328h04,S3c0328h23,S1aH1,S2aH7,S3c0328h01,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S3c0328h05,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S3c0328h21,S4aH1,S6aH1,S3c0328h03,S6d1217h24,S6aH8,S6d1217h01</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S3c0328h16,S6d1217h15,S3aH3,S6d1217h16,S6aH5,S6d1217h10,S6d1217h13,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S3c0328h07,S4aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3,S1b0119h15,S3aH2,S3c0328h18,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1aH6,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4,S1b0119h10,S1b0119h17,S3c0328h17,S4aH2</v>
+        <v>S6aH5,S6d1217h10,S6d1217h13,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4,S1b0119h10,S1b0119h17,S3c0328h17,S4aH2,S3c0328h07,S4aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1aH3,S3c0328h16,S6d1217h15,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S1b0119h15,S3aH2,S3c0328h18,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S3aH3,S6d1217h16,S1aH6</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABD014D-7B64-4AD8-930A-CBF710D825CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA58E1-A397-45C4-8C28-482BAAA325FA}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18262FA-FAE5-4516-BE53-2F000DEFF155}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFF3C8B-CC34-4BF5-AA93-0482FD9293C7}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2936,7 +2936,7 @@
         <v>169</v>
       </c>
       <c r="I4">
-        <v>2.5165087132401991E-2</v>
+        <v>2.9044999999999998E-2</v>
       </c>
       <c r="J4" t="s">
         <v>292</v>
@@ -2948,7 +2948,7 @@
         <v>82</v>
       </c>
       <c r="N4">
-        <v>0.10830924286565957</v>
+        <v>0.10830924286565956</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2971,7 +2971,7 @@
         <v>172</v>
       </c>
       <c r="I5">
-        <v>3.4393144786590553E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="J5" t="s">
         <v>292</v>
@@ -2980,10 +2980,10 @@
         <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N5">
-        <v>0.53877330642271404</v>
+        <v>9.5607473481738106E-2</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -2994,7 +2994,7 @@
         <v>173</v>
       </c>
       <c r="C6">
-        <v>1.6164850858897364E-6</v>
+        <v>8.1000000000000008E-7</v>
       </c>
       <c r="D6" t="s">
         <v>170</v>
@@ -3006,7 +3006,7 @@
         <v>173</v>
       </c>
       <c r="I6">
-        <v>3.3279977308916051E-3</v>
+        <v>4.0260000000000001E-3</v>
       </c>
       <c r="J6" t="s">
         <v>292</v>
@@ -3015,10 +3015,10 @@
         <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N6">
-        <v>0.24201623957307244</v>
+        <v>0.10847507741355955</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3029,7 +3029,7 @@
         <v>174</v>
       </c>
       <c r="C7">
-        <v>5.9146632448788998E-3</v>
+        <v>5.4796000000000003E-3</v>
       </c>
       <c r="D7" t="s">
         <v>170</v>
@@ -3041,7 +3041,7 @@
         <v>174</v>
       </c>
       <c r="I7">
-        <v>3.053557042165196E-3</v>
+        <v>3.8799999999999998E-3</v>
       </c>
       <c r="J7" t="s">
         <v>292</v>
@@ -3050,10 +3050,10 @@
         <v>171</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N7">
-        <v>9.560747348173812E-2</v>
+        <v>0.10681866024325611</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3064,7 +3064,7 @@
         <v>175</v>
       </c>
       <c r="C8">
-        <v>5.9251724451580279E-2</v>
+        <v>5.4698209999999997E-2</v>
       </c>
       <c r="D8" t="s">
         <v>170</v>
@@ -3076,7 +3076,7 @@
         <v>175</v>
       </c>
       <c r="I8">
-        <v>3.8639913361579528E-2</v>
+        <v>5.2128000000000001E-2</v>
       </c>
       <c r="J8" t="s">
         <v>292</v>
@@ -3085,10 +3085,10 @@
         <v>171</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N8">
-        <v>0.10847507741355956</v>
+        <v>0.53877330642271404</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3099,7 +3099,7 @@
         <v>176</v>
       </c>
       <c r="C9">
-        <v>5.155083945457291E-3</v>
+        <v>4.5069799999999998E-3</v>
       </c>
       <c r="D9" t="s">
         <v>170</v>
@@ -3111,7 +3111,7 @@
         <v>176</v>
       </c>
       <c r="I9">
-        <v>4.4373582006251803E-3</v>
+        <v>4.4669999999999996E-3</v>
       </c>
       <c r="J9" t="s">
         <v>292</v>
@@ -3120,10 +3120,10 @@
         <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="N9">
-        <v>0.10681866024325613</v>
+        <v>0.24201623957307239</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -3146,7 +3146,7 @@
         <v>177</v>
       </c>
       <c r="I10">
-        <v>3.263461054400835E-3</v>
+        <v>2.4220000000000001E-3</v>
       </c>
       <c r="J10" t="s">
         <v>292</v>
@@ -3172,7 +3172,7 @@
         <v>178</v>
       </c>
       <c r="I11">
-        <v>1.8897120388341949E-2</v>
+        <v>1.8280000000000001E-2</v>
       </c>
       <c r="J11" t="s">
         <v>292</v>
@@ -3198,7 +3198,7 @@
         <v>179</v>
       </c>
       <c r="I12">
-        <v>5.8120106022324803E-5</v>
+        <v>2.9E-5</v>
       </c>
       <c r="J12" t="s">
         <v>292</v>
@@ -3224,7 +3224,7 @@
         <v>180</v>
       </c>
       <c r="I13">
-        <v>5.1147800704419499E-5</v>
+        <v>3.4E-5</v>
       </c>
       <c r="J13" t="s">
         <v>292</v>
@@ -3250,7 +3250,7 @@
         <v>181</v>
       </c>
       <c r="I14">
-        <v>5.1147800704419499E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="J14" t="s">
         <v>292</v>
@@ -3276,7 +3276,7 @@
         <v>182</v>
       </c>
       <c r="I15">
-        <v>6.3584973417150995E-5</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="J15" t="s">
         <v>292</v>
@@ -3302,7 +3302,7 @@
         <v>183</v>
       </c>
       <c r="I16">
-        <v>6.4717503815549701E-5</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="J16" t="s">
         <v>292</v>
@@ -3328,7 +3328,7 @@
         <v>184</v>
       </c>
       <c r="I17">
-        <v>6.1359704864236999E-5</v>
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="J17" t="s">
         <v>292</v>
@@ -3354,7 +3354,7 @@
         <v>185</v>
       </c>
       <c r="I18">
-        <v>6.0266809826755001E-5</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="J18" t="s">
         <v>292</v>
@@ -3380,7 +3380,7 @@
         <v>186</v>
       </c>
       <c r="I19">
-        <v>6.4717503815549701E-5</v>
+        <v>2.2699999999999999E-4</v>
       </c>
       <c r="J19" t="s">
         <v>292</v>
@@ -3406,7 +3406,7 @@
         <v>187</v>
       </c>
       <c r="I20">
-        <v>7.9186737456912997E-5</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J20" t="s">
         <v>292</v>
@@ -3420,7 +3420,7 @@
         <v>188</v>
       </c>
       <c r="C21">
-        <v>3.070437264055E-4</v>
+        <v>3.2916999999999999E-4</v>
       </c>
       <c r="D21" t="s">
         <v>170</v>
@@ -3432,7 +3432,7 @@
         <v>188</v>
       </c>
       <c r="I21">
-        <v>8.5883256202977295E-5</v>
+        <v>2.7E-4</v>
       </c>
       <c r="J21" t="s">
         <v>292</v>
@@ -3446,7 +3446,7 @@
         <v>189</v>
       </c>
       <c r="C22">
-        <v>3.934953796413E-4</v>
+        <v>4.0876999999999998E-4</v>
       </c>
       <c r="D22" t="s">
         <v>170</v>
@@ -3458,7 +3458,7 @@
         <v>189</v>
       </c>
       <c r="I22">
-        <v>1.030276458031E-4</v>
+        <v>1.1E-4</v>
       </c>
       <c r="J22" t="s">
         <v>292</v>
@@ -3472,7 +3472,7 @@
         <v>190</v>
       </c>
       <c r="C23">
-        <v>4.255442027449E-4</v>
+        <v>4.4588000000000001E-4</v>
       </c>
       <c r="D23" t="s">
         <v>170</v>
@@ -3484,7 +3484,7 @@
         <v>190</v>
       </c>
       <c r="I23">
-        <v>2.2714011391809999E-4</v>
+        <v>4.6700000000000002E-4</v>
       </c>
       <c r="J23" t="s">
         <v>292</v>
@@ -3498,7 +3498,7 @@
         <v>191</v>
       </c>
       <c r="C24">
-        <v>4.2587994686100003E-4</v>
+        <v>4.5792000000000001E-4</v>
       </c>
       <c r="D24" t="s">
         <v>170</v>
@@ -3510,7 +3510,7 @@
         <v>191</v>
       </c>
       <c r="I24">
-        <v>3.4448335073829998E-4</v>
+        <v>4.6700000000000002E-4</v>
       </c>
       <c r="J24" t="s">
         <v>292</v>
@@ -3524,7 +3524,7 @@
         <v>192</v>
       </c>
       <c r="C25">
-        <v>4.3312219311210002E-4</v>
+        <v>4.5807999999999998E-4</v>
       </c>
       <c r="D25" t="s">
         <v>170</v>
@@ -3536,7 +3536,7 @@
         <v>192</v>
       </c>
       <c r="I25">
-        <v>3.9055292048009998E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="J25" t="s">
         <v>292</v>
@@ -3550,7 +3550,7 @@
         <v>193</v>
       </c>
       <c r="C26">
-        <v>3.8957536236359998E-4</v>
+        <v>4.5028000000000001E-4</v>
       </c>
       <c r="D26" t="s">
         <v>170</v>
@@ -3562,7 +3562,7 @@
         <v>193</v>
       </c>
       <c r="I26">
-        <v>4.9087763891380004E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="J26" t="s">
         <v>292</v>
@@ -3576,7 +3576,7 @@
         <v>194</v>
       </c>
       <c r="C27">
-        <v>3.7252856903389998E-4</v>
+        <v>4.2667999999999997E-4</v>
       </c>
       <c r="D27" t="s">
         <v>170</v>
@@ -3588,7 +3588,7 @@
         <v>194</v>
       </c>
       <c r="I27">
-        <v>3.8358211900509998E-4</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="J27" t="s">
         <v>292</v>
@@ -3602,7 +3602,7 @@
         <v>195</v>
       </c>
       <c r="C28">
-        <v>3.2971709978849999E-4</v>
+        <v>3.8447999999999998E-4</v>
       </c>
       <c r="D28" t="s">
         <v>170</v>
@@ -3614,7 +3614,7 @@
         <v>195</v>
       </c>
       <c r="I28">
-        <v>3.6522791516400001E-4</v>
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="J28" t="s">
         <v>292</v>
@@ -3628,7 +3628,7 @@
         <v>196</v>
       </c>
       <c r="C29">
-        <v>2.337368647597E-4</v>
+        <v>2.9365000000000001E-4</v>
       </c>
       <c r="D29" t="s">
         <v>170</v>
@@ -3640,7 +3640,7 @@
         <v>196</v>
       </c>
       <c r="I29">
-        <v>2.222889847331E-4</v>
+        <v>1.2899999999999999E-4</v>
       </c>
       <c r="J29" t="s">
         <v>292</v>
@@ -3666,7 +3666,7 @@
         <v>197</v>
       </c>
       <c r="I30">
-        <v>1.7720233365889999E-4</v>
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="J30" t="s">
         <v>292</v>
@@ -3692,7 +3692,7 @@
         <v>198</v>
       </c>
       <c r="I31">
-        <v>1.9496482278480001E-4</v>
+        <v>2.2699999999999999E-4</v>
       </c>
       <c r="J31" t="s">
         <v>292</v>
@@ -3718,7 +3718,7 @@
         <v>199</v>
       </c>
       <c r="I32">
-        <v>2.324427843361E-4</v>
+        <v>2.99E-4</v>
       </c>
       <c r="J32" t="s">
         <v>292</v>
@@ -3744,7 +3744,7 @@
         <v>200</v>
       </c>
       <c r="I33">
-        <v>2.2978125173429999E-4</v>
+        <v>3.3199999999999999E-4</v>
       </c>
       <c r="J33" t="s">
         <v>292</v>
@@ -3770,7 +3770,7 @@
         <v>201</v>
       </c>
       <c r="I34">
-        <v>2.1207602740680001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="J34" t="s">
         <v>292</v>
@@ -3796,7 +3796,7 @@
         <v>202</v>
       </c>
       <c r="I35">
-        <v>1.936101212926E-4</v>
+        <v>4.6700000000000002E-4</v>
       </c>
       <c r="J35" t="s">
         <v>292</v>
@@ -3822,7 +3822,7 @@
         <v>203</v>
       </c>
       <c r="I36">
-        <v>2.5860272054612526E-2</v>
+        <v>2.8469000000000001E-2</v>
       </c>
       <c r="J36" t="s">
         <v>292</v>
@@ -3848,7 +3848,7 @@
         <v>204</v>
       </c>
       <c r="I37">
-        <v>3.3520720140472046E-3</v>
+        <v>2.4490000000000002E-3</v>
       </c>
       <c r="J37" t="s">
         <v>292</v>
@@ -3862,7 +3862,7 @@
         <v>205</v>
       </c>
       <c r="C38">
-        <v>3.4243541446220766E-3</v>
+        <v>3.5297699999999998E-3</v>
       </c>
       <c r="D38" t="s">
         <v>170</v>
@@ -3874,7 +3874,7 @@
         <v>205</v>
       </c>
       <c r="I38">
-        <v>3.2313653651738924E-3</v>
+        <v>2.346E-3</v>
       </c>
       <c r="J38" t="s">
         <v>292</v>
@@ -3888,7 +3888,7 @@
         <v>206</v>
       </c>
       <c r="C39">
-        <v>6.0924471243558121E-3</v>
+        <v>6.0507800000000004E-3</v>
       </c>
       <c r="D39" t="s">
         <v>170</v>
@@ -3900,7 +3900,7 @@
         <v>206</v>
       </c>
       <c r="I39">
-        <v>3.0934770689397791E-3</v>
+        <v>3.993E-3</v>
       </c>
       <c r="J39" t="s">
         <v>292</v>
@@ -3914,7 +3914,7 @@
         <v>207</v>
       </c>
       <c r="C40">
-        <v>5.8140310703998797E-2</v>
+        <v>5.2142769999999998E-2</v>
       </c>
       <c r="D40" t="s">
         <v>170</v>
@@ -3926,7 +3926,7 @@
         <v>207</v>
       </c>
       <c r="I40">
-        <v>4.2594711797081193E-2</v>
+        <v>6.5091999999999997E-2</v>
       </c>
       <c r="J40" t="s">
         <v>292</v>
@@ -3940,7 +3940,7 @@
         <v>208</v>
       </c>
       <c r="C41">
-        <v>5.7315737894794517E-3</v>
+        <v>5.18901E-3</v>
       </c>
       <c r="D41" t="s">
         <v>170</v>
@@ -3952,7 +3952,7 @@
         <v>208</v>
       </c>
       <c r="I41">
-        <v>5.759387701048173E-3</v>
+        <v>8.6700000000000006E-3</v>
       </c>
       <c r="J41" t="s">
         <v>292</v>
@@ -3966,7 +3966,7 @@
         <v>209</v>
       </c>
       <c r="C42">
-        <v>1.8301641058192483E-3</v>
+        <v>1.74435E-3</v>
       </c>
       <c r="D42" t="s">
         <v>170</v>
@@ -3978,7 +3978,7 @@
         <v>209</v>
       </c>
       <c r="I42">
-        <v>4.3676685236114076E-3</v>
+        <v>6.045E-3</v>
       </c>
       <c r="J42" t="s">
         <v>292</v>
@@ -4004,7 +4004,7 @@
         <v>210</v>
       </c>
       <c r="I43">
-        <v>2.3855925977475767E-2</v>
+        <v>2.5363E-2</v>
       </c>
       <c r="J43" t="s">
         <v>292</v>
@@ -4030,7 +4030,7 @@
         <v>211</v>
       </c>
       <c r="I44">
-        <v>2.3901237701902524E-2</v>
+        <v>1.6580000000000001E-2</v>
       </c>
       <c r="J44" t="s">
         <v>292</v>
@@ -4044,7 +4044,7 @@
         <v>212</v>
       </c>
       <c r="C45">
-        <v>1.2545103465348227E-3</v>
+        <v>1.6961999999999999E-3</v>
       </c>
       <c r="D45" t="s">
         <v>170</v>
@@ -4056,7 +4056,7 @@
         <v>212</v>
       </c>
       <c r="I45">
-        <v>2.9111838340747848E-3</v>
+        <v>2.7330000000000002E-3</v>
       </c>
       <c r="J45" t="s">
         <v>292</v>
@@ -4070,7 +4070,7 @@
         <v>213</v>
       </c>
       <c r="C46">
-        <v>5.5022318970884814E-3</v>
+        <v>6.5335200000000001E-3</v>
       </c>
       <c r="D46" t="s">
         <v>170</v>
@@ -4082,7 +4082,7 @@
         <v>213</v>
       </c>
       <c r="I46">
-        <v>2.6376729096198098E-3</v>
+        <v>2.941E-3</v>
       </c>
       <c r="J46" t="s">
         <v>292</v>
@@ -4096,7 +4096,7 @@
         <v>214</v>
       </c>
       <c r="C47">
-        <v>7.3704194335028998E-3</v>
+        <v>8.3110700000000003E-3</v>
       </c>
       <c r="D47" t="s">
         <v>170</v>
@@ -4108,7 +4108,7 @@
         <v>214</v>
       </c>
       <c r="I47">
-        <v>2.7781870475046128E-3</v>
+        <v>3.666E-3</v>
       </c>
       <c r="J47" t="s">
         <v>292</v>
@@ -4122,7 +4122,7 @@
         <v>215</v>
       </c>
       <c r="C48">
-        <v>5.9671516784394203E-2</v>
+        <v>6.0632190000000002E-2</v>
       </c>
       <c r="D48" t="s">
         <v>170</v>
@@ -4134,7 +4134,7 @@
         <v>215</v>
       </c>
       <c r="I48">
-        <v>4.5778594250065016E-2</v>
+        <v>8.8220000000000007E-2</v>
       </c>
       <c r="J48" t="s">
         <v>292</v>
@@ -4148,7 +4148,7 @@
         <v>216</v>
       </c>
       <c r="C49">
-        <v>6.3753451165958945E-3</v>
+        <v>5.88011E-3</v>
       </c>
       <c r="D49" t="s">
         <v>170</v>
@@ -4160,7 +4160,7 @@
         <v>216</v>
       </c>
       <c r="I49">
-        <v>6.4663505639885755E-3</v>
+        <v>1.3318E-2</v>
       </c>
       <c r="J49" t="s">
         <v>292</v>
@@ -4174,7 +4174,7 @@
         <v>217</v>
       </c>
       <c r="C50">
-        <v>4.4818490249314931E-3</v>
+        <v>4.1365600000000001E-3</v>
       </c>
       <c r="D50" t="s">
         <v>170</v>
@@ -4186,7 +4186,7 @@
         <v>217</v>
       </c>
       <c r="I50">
-        <v>4.7151075224541768E-3</v>
+        <v>8.9960000000000005E-3</v>
       </c>
       <c r="J50" t="s">
         <v>292</v>
@@ -4212,7 +4212,7 @@
         <v>218</v>
       </c>
       <c r="I51">
-        <v>2.1400068864515651E-2</v>
+        <v>1.7944000000000002E-2</v>
       </c>
       <c r="J51" t="s">
         <v>292</v>
@@ -4238,7 +4238,7 @@
         <v>219</v>
       </c>
       <c r="I52">
-        <v>1.4976882535019999E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="J52" t="s">
         <v>292</v>
@@ -4264,7 +4264,7 @@
         <v>220</v>
       </c>
       <c r="I53">
-        <v>1.520582457723E-4</v>
+        <v>2.3E-5</v>
       </c>
       <c r="J53" t="s">
         <v>292</v>
@@ -4290,7 +4290,7 @@
         <v>221</v>
       </c>
       <c r="I54">
-        <v>1.422118612391E-4</v>
+        <v>1.7E-5</v>
       </c>
       <c r="J54" t="s">
         <v>292</v>
@@ -4316,7 +4316,7 @@
         <v>222</v>
       </c>
       <c r="I55">
-        <v>1.9803597460170001E-4</v>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="J55" t="s">
         <v>292</v>
@@ -4342,7 +4342,7 @@
         <v>223</v>
       </c>
       <c r="I56">
-        <v>1.9091957353680001E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J56" t="s">
         <v>292</v>
@@ -4368,7 +4368,7 @@
         <v>224</v>
       </c>
       <c r="I57">
-        <v>2.074425991801E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J57" t="s">
         <v>292</v>
@@ -4394,7 +4394,7 @@
         <v>225</v>
       </c>
       <c r="I58">
-        <v>2.1207602740680001E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J58" t="s">
         <v>292</v>
@@ -4408,7 +4408,7 @@
         <v>226</v>
       </c>
       <c r="C59">
-        <v>1.162649118589E-4</v>
+        <v>2.1727000000000001E-4</v>
       </c>
       <c r="D59" t="s">
         <v>170</v>
@@ -4420,7 +4420,7 @@
         <v>226</v>
       </c>
       <c r="I59">
-        <v>2.1496137623909999E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J59" t="s">
         <v>292</v>
@@ -4434,7 +4434,7 @@
         <v>227</v>
       </c>
       <c r="C60">
-        <v>2.0749068264830001E-4</v>
+        <v>3.5186000000000001E-4</v>
       </c>
       <c r="D60" t="s">
         <v>170</v>
@@ -4446,7 +4446,7 @@
         <v>227</v>
       </c>
       <c r="I60">
-        <v>2.3821510956620001E-4</v>
+        <v>7.2999999999999999E-5</v>
       </c>
       <c r="J60" t="s">
         <v>292</v>
@@ -4460,7 +4460,7 @@
         <v>228</v>
       </c>
       <c r="C61">
-        <v>2.6295724840700002E-4</v>
+        <v>4.1627E-4</v>
       </c>
       <c r="D61" t="s">
         <v>170</v>
@@ -4472,7 +4472,7 @@
         <v>228</v>
       </c>
       <c r="I61">
-        <v>3.4448335073829998E-4</v>
+        <v>1.6899999999999999E-4</v>
       </c>
       <c r="J61" t="s">
         <v>292</v>
@@ -4486,7 +4486,7 @@
         <v>229</v>
       </c>
       <c r="C62">
-        <v>3.1753368281389998E-4</v>
+        <v>3.7902999999999998E-4</v>
       </c>
       <c r="D62" t="s">
         <v>170</v>
@@ -4498,7 +4498,7 @@
         <v>229</v>
       </c>
       <c r="I62">
-        <v>5.0867978733720005E-4</v>
+        <v>1.276E-3</v>
       </c>
       <c r="J62" t="s">
         <v>292</v>
@@ -4512,7 +4512,7 @@
         <v>230</v>
       </c>
       <c r="C63">
-        <v>3.0051882611960003E-4</v>
+        <v>1.9986E-4</v>
       </c>
       <c r="D63" t="s">
         <v>170</v>
@@ -4524,7 +4524,7 @@
         <v>230</v>
       </c>
       <c r="I63">
-        <v>6.0778513439959997E-4</v>
+        <v>1.276E-3</v>
       </c>
       <c r="J63" t="s">
         <v>292</v>
@@ -4538,7 +4538,7 @@
         <v>231</v>
       </c>
       <c r="C64">
-        <v>3.3739499450250002E-4</v>
+        <v>2.6689999999999998E-4</v>
       </c>
       <c r="D64" t="s">
         <v>170</v>
@@ -4550,7 +4550,7 @@
         <v>231</v>
       </c>
       <c r="I64">
-        <v>6.0272831106299998E-4</v>
+        <v>6.3900000000000003E-4</v>
       </c>
       <c r="J64" t="s">
         <v>292</v>
@@ -4564,7 +4564,7 @@
         <v>232</v>
       </c>
       <c r="C65">
-        <v>3.579793843728E-4</v>
+        <v>3.5851999999999998E-4</v>
       </c>
       <c r="D65" t="s">
         <v>170</v>
@@ -4576,7 +4576,7 @@
         <v>232</v>
       </c>
       <c r="I65">
-        <v>6.8079628422070004E-4</v>
+        <v>9.9200000000000004E-4</v>
       </c>
       <c r="J65" t="s">
         <v>292</v>
@@ -4590,7 +4590,7 @@
         <v>233</v>
       </c>
       <c r="C66">
-        <v>3.7893636832319998E-4</v>
+        <v>3.9745999999999998E-4</v>
       </c>
       <c r="D66" t="s">
         <v>170</v>
@@ -4602,7 +4602,7 @@
         <v>233</v>
       </c>
       <c r="I66">
-        <v>7.1899286459010004E-4</v>
+        <v>5.9699999999999998E-4</v>
       </c>
       <c r="J66" t="s">
         <v>292</v>
@@ -4616,7 +4616,7 @@
         <v>234</v>
       </c>
       <c r="C67">
-        <v>3.2856328647239998E-4</v>
+        <v>3.6624999999999998E-4</v>
       </c>
       <c r="D67" t="s">
         <v>170</v>
@@ -4628,7 +4628,7 @@
         <v>234</v>
       </c>
       <c r="I67">
-        <v>1.0435906295873001E-3</v>
+        <v>5.9699999999999998E-4</v>
       </c>
       <c r="J67" t="s">
         <v>292</v>
@@ -4642,7 +4642,7 @@
         <v>235</v>
       </c>
       <c r="C68">
-        <v>2.8446943848109998E-4</v>
+        <v>3.5744999999999999E-4</v>
       </c>
       <c r="D68" t="s">
         <v>170</v>
@@ -4654,7 +4654,7 @@
         <v>235</v>
       </c>
       <c r="I68">
-        <v>7.4109320902120005E-4</v>
+        <v>6.8999999999999997E-4</v>
       </c>
       <c r="J68" t="s">
         <v>292</v>
@@ -4668,7 +4668,7 @@
         <v>236</v>
       </c>
       <c r="C69">
-        <v>2.2022439241810001E-4</v>
+        <v>2.3026000000000001E-4</v>
       </c>
       <c r="D69" t="s">
         <v>170</v>
@@ -4680,7 +4680,7 @@
         <v>236</v>
       </c>
       <c r="I69">
-        <v>6.3872113151129998E-4</v>
+        <v>8.4099999999999995E-4</v>
       </c>
       <c r="J69" t="s">
         <v>292</v>
@@ -4694,7 +4694,7 @@
         <v>237</v>
       </c>
       <c r="C70">
-        <v>1.509276257396E-4</v>
+        <v>9.043E-5</v>
       </c>
       <c r="D70" t="s">
         <v>170</v>
@@ -4706,7 +4706,7 @@
         <v>237</v>
       </c>
       <c r="I70">
-        <v>5.6396858941319997E-4</v>
+        <v>2.4699999999999999E-4</v>
       </c>
       <c r="J70" t="s">
         <v>292</v>
@@ -4732,7 +4732,7 @@
         <v>238</v>
       </c>
       <c r="I71">
-        <v>3.6111657031410001E-4</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="J71" t="s">
         <v>292</v>
@@ -4758,7 +4758,7 @@
         <v>239</v>
       </c>
       <c r="I72">
-        <v>2.865521919919E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J72" t="s">
         <v>292</v>
@@ -4784,7 +4784,7 @@
         <v>240</v>
       </c>
       <c r="I73">
-        <v>2.630881330735E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="J73" t="s">
         <v>292</v>
@@ -4810,7 +4810,7 @@
         <v>241</v>
       </c>
       <c r="I74">
-        <v>2.3320697918060001E-4</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="J74" t="s">
         <v>292</v>
@@ -4836,7 +4836,7 @@
         <v>242</v>
       </c>
       <c r="I75">
-        <v>2.2751617363310001E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="J75" t="s">
         <v>292</v>
@@ -4850,7 +4850,7 @@
         <v>243</v>
       </c>
       <c r="C76">
-        <v>1.2405089980049562E-4</v>
+        <v>1.5199999999999998E-6</v>
       </c>
       <c r="D76" t="s">
         <v>170</v>
@@ -4862,7 +4862,7 @@
         <v>243</v>
       </c>
       <c r="I76">
-        <v>2.8201679646904013E-2</v>
+        <v>1.3198E-2</v>
       </c>
       <c r="J76" t="s">
         <v>292</v>
@@ -4876,7 +4876,7 @@
         <v>244</v>
       </c>
       <c r="C77">
-        <v>4.899988841583762E-3</v>
+        <v>5.0233100000000004E-3</v>
       </c>
       <c r="D77" t="s">
         <v>170</v>
@@ -4888,7 +4888,7 @@
         <v>244</v>
       </c>
       <c r="I77">
-        <v>3.246811903008458E-3</v>
+        <v>8.7299999999999997E-4</v>
       </c>
       <c r="J77" t="s">
         <v>292</v>
@@ -4902,7 +4902,7 @@
         <v>245</v>
       </c>
       <c r="C78">
-        <v>7.2259774014208997E-3</v>
+        <v>7.4297699999999996E-3</v>
       </c>
       <c r="D78" t="s">
         <v>170</v>
@@ -4914,7 +4914,7 @@
         <v>245</v>
       </c>
       <c r="I78">
-        <v>2.7738486807288888E-3</v>
+        <v>1.17E-3</v>
       </c>
       <c r="J78" t="s">
         <v>292</v>
@@ -4928,7 +4928,7 @@
         <v>246</v>
       </c>
       <c r="C79">
-        <v>8.4644219825556009E-3</v>
+        <v>8.8087700000000005E-3</v>
       </c>
       <c r="D79" t="s">
         <v>170</v>
@@ -4940,7 +4940,7 @@
         <v>246</v>
       </c>
       <c r="I79">
-        <v>4.4974244951535491E-3</v>
+        <v>2.0590000000000001E-3</v>
       </c>
       <c r="J79" t="s">
         <v>292</v>
@@ -4954,7 +4954,7 @@
         <v>247</v>
       </c>
       <c r="C80">
-        <v>6.3451545962310701E-2</v>
+        <v>6.539201E-2</v>
       </c>
       <c r="D80" t="s">
         <v>170</v>
@@ -4966,7 +4966,7 @@
         <v>247</v>
       </c>
       <c r="I80">
-        <v>5.5596531275893007E-2</v>
+        <v>5.8785999999999998E-2</v>
       </c>
       <c r="J80" t="s">
         <v>292</v>
@@ -4980,7 +4980,7 @@
         <v>248</v>
       </c>
       <c r="C81">
-        <v>6.821914271002971E-3</v>
+        <v>6.5354899999999997E-3</v>
       </c>
       <c r="D81" t="s">
         <v>170</v>
@@ -4992,7 +4992,7 @@
         <v>248</v>
       </c>
       <c r="I81">
-        <v>8.2409102348936242E-3</v>
+        <v>8.6960000000000006E-3</v>
       </c>
       <c r="J81" t="s">
         <v>292</v>
@@ -5006,7 +5006,7 @@
         <v>249</v>
       </c>
       <c r="C82">
-        <v>5.2588804672869553E-3</v>
+        <v>4.9440500000000002E-3</v>
       </c>
       <c r="D82" t="s">
         <v>170</v>
@@ -5018,7 +5018,7 @@
         <v>249</v>
       </c>
       <c r="I82">
-        <v>5.9192005497755284E-3</v>
+        <v>5.6930000000000001E-3</v>
       </c>
       <c r="J82" t="s">
         <v>292</v>
@@ -5032,7 +5032,7 @@
         <v>250</v>
       </c>
       <c r="C83">
-        <v>1.3441867810613775E-3</v>
+        <v>1.2780300000000001E-3</v>
       </c>
       <c r="D83" t="s">
         <v>170</v>
@@ -5044,7 +5044,7 @@
         <v>250</v>
       </c>
       <c r="I83">
-        <v>2.3221574996443929E-2</v>
+        <v>1.6633999999999999E-2</v>
       </c>
       <c r="J83" t="s">
         <v>292</v>
@@ -5058,7 +5058,7 @@
         <v>251</v>
       </c>
       <c r="C84">
-        <v>5.9145829938466142E-3</v>
+        <v>5.5852999999999996E-3</v>
       </c>
       <c r="D84" t="s">
         <v>170</v>
@@ -5070,7 +5070,7 @@
         <v>251</v>
       </c>
       <c r="I84">
-        <v>2.6401584082703145E-2</v>
+        <v>1.2992E-2</v>
       </c>
       <c r="J84" t="s">
         <v>292</v>
@@ -5084,7 +5084,7 @@
         <v>252</v>
       </c>
       <c r="C85">
-        <v>1.0892937787684309E-2</v>
+        <v>1.0334650000000001E-2</v>
       </c>
       <c r="D85" t="s">
         <v>170</v>
@@ -5096,7 +5096,7 @@
         <v>252</v>
       </c>
       <c r="I85">
-        <v>2.5949540046949398E-3</v>
+        <v>1.2900000000000001E-3</v>
       </c>
       <c r="J85" t="s">
         <v>292</v>
@@ -5110,7 +5110,7 @@
         <v>253</v>
       </c>
       <c r="C86">
-        <v>1.4216509737529699E-2</v>
+        <v>1.377744E-2</v>
       </c>
       <c r="D86" t="s">
         <v>170</v>
@@ -5122,7 +5122,7 @@
         <v>253</v>
       </c>
       <c r="I86">
-        <v>3.6048747182873763E-3</v>
+        <v>3.7380000000000004E-3</v>
       </c>
       <c r="J86" t="s">
         <v>292</v>
@@ -5136,7 +5136,7 @@
         <v>254</v>
       </c>
       <c r="C87">
-        <v>1.63046940154736E-2</v>
+        <v>1.5739719999999999E-2</v>
       </c>
       <c r="D87" t="s">
         <v>170</v>
@@ -5148,7 +5148,7 @@
         <v>254</v>
       </c>
       <c r="I87">
-        <v>4.9839746393272443E-3</v>
+        <v>5.1619999999999999E-3</v>
       </c>
       <c r="J87" t="s">
         <v>292</v>
@@ -5162,7 +5162,7 @@
         <v>255</v>
       </c>
       <c r="C88">
-        <v>0.1205480388548468</v>
+        <v>0.12154853</v>
       </c>
       <c r="D88" t="s">
         <v>170</v>
@@ -5174,7 +5174,7 @@
         <v>255</v>
       </c>
       <c r="I88">
-        <v>5.4181789240250987E-2</v>
+        <v>6.7600999999999994E-2</v>
       </c>
       <c r="J88" t="s">
         <v>292</v>
@@ -5188,7 +5188,7 @@
         <v>256</v>
       </c>
       <c r="C89">
-        <v>1.31512272315024E-2</v>
+        <v>1.315785E-2</v>
       </c>
       <c r="D89" t="s">
         <v>170</v>
@@ -5200,7 +5200,7 @@
         <v>256</v>
       </c>
       <c r="I89">
-        <v>8.3068841286664356E-3</v>
+        <v>1.1615E-2</v>
       </c>
       <c r="J89" t="s">
         <v>292</v>
@@ -5214,7 +5214,7 @@
         <v>257</v>
       </c>
       <c r="C90">
-        <v>1.0629155100084333E-2</v>
+        <v>1.0362969999999999E-2</v>
       </c>
       <c r="D90" t="s">
         <v>170</v>
@@ -5226,7 +5226,7 @@
         <v>257</v>
       </c>
       <c r="I90">
-        <v>6.9207892226577734E-3</v>
+        <v>8.8760000000000002E-3</v>
       </c>
       <c r="J90" t="s">
         <v>292</v>
@@ -5240,7 +5240,7 @@
         <v>258</v>
       </c>
       <c r="C91">
-        <v>6.9331151789240519E-3</v>
+        <v>6.9130299999999997E-3</v>
       </c>
       <c r="D91" t="s">
         <v>170</v>
@@ -5252,7 +5252,7 @@
         <v>258</v>
       </c>
       <c r="I91">
-        <v>2.3975641517865909E-2</v>
+        <v>1.8769000000000001E-2</v>
       </c>
       <c r="J91" t="s">
         <v>292</v>
@@ -5266,7 +5266,7 @@
         <v>259</v>
       </c>
       <c r="C92">
-        <v>3.061142884255227E-3</v>
+        <v>2.8377300000000001E-3</v>
       </c>
       <c r="D92" t="s">
         <v>170</v>
@@ -5278,7 +5278,7 @@
         <v>259</v>
       </c>
       <c r="I92">
-        <v>9.7665757727608327E-2</v>
+        <v>6.9238999999999995E-2</v>
       </c>
       <c r="J92" t="s">
         <v>292</v>
@@ -5292,7 +5292,7 @@
         <v>260</v>
       </c>
       <c r="C93">
-        <v>1.398502072057096E-2</v>
+        <v>1.34933E-2</v>
       </c>
       <c r="D93" t="s">
         <v>170</v>
@@ -5304,7 +5304,7 @@
         <v>260</v>
       </c>
       <c r="I93">
-        <v>1.1740507150691604E-2</v>
+        <v>9.4450000000000003E-3</v>
       </c>
       <c r="J93" t="s">
         <v>292</v>
@@ -5318,7 +5318,7 @@
         <v>261</v>
       </c>
       <c r="C94">
-        <v>2.9705808222608401E-2</v>
+        <v>3.0079740000000001E-2</v>
       </c>
       <c r="D94" t="s">
         <v>170</v>
@@ -5330,7 +5330,7 @@
         <v>261</v>
       </c>
       <c r="I94">
-        <v>1.1226835421873266E-2</v>
+        <v>9.0600000000000003E-3</v>
       </c>
       <c r="J94" t="s">
         <v>292</v>
@@ -5344,7 +5344,7 @@
         <v>262</v>
       </c>
       <c r="C95">
-        <v>4.2362982255029019E-2</v>
+        <v>4.3312950000000003E-2</v>
       </c>
       <c r="D95" t="s">
         <v>170</v>
@@ -5356,7 +5356,7 @@
         <v>262</v>
       </c>
       <c r="I95">
-        <v>1.1819960806602137E-2</v>
+        <v>1.1122E-2</v>
       </c>
       <c r="J95" t="s">
         <v>292</v>
@@ -5370,7 +5370,7 @@
         <v>263</v>
       </c>
       <c r="C96">
-        <v>0.33176592994271586</v>
+        <v>0.33836601999999999</v>
       </c>
       <c r="D96" t="s">
         <v>170</v>
@@ -5382,7 +5382,7 @@
         <v>263</v>
       </c>
       <c r="I96">
-        <v>0.15310247804612953</v>
+        <v>0.15960199999999999</v>
       </c>
       <c r="J96" t="s">
         <v>292</v>
@@ -5396,7 +5396,7 @@
         <v>264</v>
       </c>
       <c r="C97">
-        <v>2.6464957890757437E-2</v>
+        <v>2.7260110000000001E-2</v>
       </c>
       <c r="D97" t="s">
         <v>170</v>
@@ -5408,7 +5408,7 @@
         <v>264</v>
       </c>
       <c r="I97">
-        <v>1.8761795715407144E-2</v>
+        <v>1.6150000000000001E-2</v>
       </c>
       <c r="J97" t="s">
         <v>292</v>
@@ -5422,7 +5422,7 @@
         <v>265</v>
       </c>
       <c r="C98">
-        <v>1.3020902011170298E-2</v>
+        <v>1.360535E-2</v>
       </c>
       <c r="D98" t="s">
         <v>170</v>
@@ -5434,7 +5434,7 @@
         <v>265</v>
       </c>
       <c r="I98">
-        <v>1.6976931919953836E-2</v>
+        <v>1.1127E-2</v>
       </c>
       <c r="J98" t="s">
         <v>292</v>
@@ -5448,7 +5448,7 @@
         <v>266</v>
       </c>
       <c r="C99">
-        <v>5.6392122209123815E-3</v>
+        <v>5.40765E-3</v>
       </c>
       <c r="D99" t="s">
         <v>170</v>
@@ -5460,7 +5460,7 @@
         <v>266</v>
       </c>
       <c r="I99">
-        <v>7.731893718892778E-2</v>
+        <v>4.6487000000000001E-2</v>
       </c>
       <c r="J99" t="s">
         <v>292</v>
@@ -5486,7 +5486,7 @@
         <v>267</v>
       </c>
       <c r="I100">
-        <v>5.42697716633592E-5</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>292</v>
@@ -5512,7 +5512,7 @@
         <v>268</v>
       </c>
       <c r="I101">
-        <v>5.9494167886486197E-5</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>292</v>
@@ -5538,7 +5538,7 @@
         <v>269</v>
       </c>
       <c r="I102">
-        <v>6.5863402883887197E-5</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>292</v>
@@ -5564,7 +5564,7 @@
         <v>270</v>
       </c>
       <c r="I103">
-        <v>5.6024994302050699E-5</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>292</v>
@@ -5590,7 +5590,7 @@
         <v>271</v>
       </c>
       <c r="I104">
-        <v>5.1287041464848399E-5</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>292</v>
@@ -5616,7 +5616,7 @@
         <v>272</v>
       </c>
       <c r="I105">
-        <v>5.9340436262653401E-5</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>292</v>
@@ -5642,7 +5642,7 @@
         <v>273</v>
       </c>
       <c r="I106">
-        <v>7.7890643759070006E-5</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>292</v>
@@ -5668,7 +5668,7 @@
         <v>274</v>
       </c>
       <c r="I107">
-        <v>6.7189472243698502E-5</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>292</v>
@@ -5694,7 +5694,7 @@
         <v>275</v>
       </c>
       <c r="I108">
-        <v>7.1621911245122095E-5</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>292</v>
@@ -5708,7 +5708,7 @@
         <v>276</v>
       </c>
       <c r="C109">
-        <v>1.0653897803660001E-4</v>
+        <v>1.0560000000000001E-5</v>
       </c>
       <c r="D109" t="s">
         <v>170</v>
@@ -5720,7 +5720,7 @@
         <v>276</v>
       </c>
       <c r="I109">
-        <v>5.5142727263413603E-5</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>292</v>
@@ -5734,7 +5734,7 @@
         <v>277</v>
       </c>
       <c r="C110">
-        <v>1.2923855583850001E-4</v>
+        <v>3.4770000000000001E-5</v>
       </c>
       <c r="D110" t="s">
         <v>170</v>
@@ -5746,7 +5746,7 @@
         <v>277</v>
       </c>
       <c r="I110">
-        <v>4.4502615963170703E-5</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
         <v>292</v>
@@ -5760,7 +5760,7 @@
         <v>278</v>
       </c>
       <c r="C111">
-        <v>1.563552159875E-4</v>
+        <v>7.4040000000000003E-5</v>
       </c>
       <c r="D111" t="s">
         <v>170</v>
@@ -5772,7 +5772,7 @@
         <v>278</v>
       </c>
       <c r="I111">
-        <v>6.8195620796311906E-5</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
         <v>292</v>
@@ -5786,7 +5786,7 @@
         <v>279</v>
       </c>
       <c r="C112">
-        <v>1.9104904761559999E-4</v>
+        <v>1.9578E-4</v>
       </c>
       <c r="D112" t="s">
         <v>170</v>
@@ -5798,7 +5798,7 @@
         <v>279</v>
       </c>
       <c r="I112">
-        <v>1.1571938384590001E-4</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>292</v>
@@ -5812,7 +5812,7 @@
         <v>280</v>
       </c>
       <c r="C113">
-        <v>1.8902311848570001E-4</v>
+        <v>2.8521999999999998E-4</v>
       </c>
       <c r="D113" t="s">
         <v>170</v>
@@ -5824,7 +5824,7 @@
         <v>280</v>
       </c>
       <c r="I113">
-        <v>9.3986715762938005E-5</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>292</v>
@@ -5838,7 +5838,7 @@
         <v>281</v>
       </c>
       <c r="C114">
-        <v>8.2747003525322204E-5</v>
+        <v>5.0349999999999997E-5</v>
       </c>
       <c r="D114" t="s">
         <v>170</v>
@@ -5850,7 +5850,7 @@
         <v>281</v>
       </c>
       <c r="I114">
-        <v>1.500537374337E-4</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
         <v>292</v>
@@ -5864,7 +5864,7 @@
         <v>282</v>
       </c>
       <c r="C115">
-        <v>1.015183751686E-4</v>
+        <v>2.2258999999999999E-4</v>
       </c>
       <c r="D115" t="s">
         <v>170</v>
@@ -5876,7 +5876,7 @@
         <v>282</v>
       </c>
       <c r="I115">
-        <v>8.4514884281240298E-5</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>292</v>
@@ -5890,7 +5890,7 @@
         <v>283</v>
       </c>
       <c r="C116">
-        <v>8.4250482055055502E-5</v>
+        <v>1.1196000000000001E-4</v>
       </c>
       <c r="D116" t="s">
         <v>170</v>
@@ -5902,7 +5902,7 @@
         <v>283</v>
       </c>
       <c r="I116">
-        <v>9.7152174367670497E-5</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>292</v>
@@ -5916,7 +5916,7 @@
         <v>284</v>
       </c>
       <c r="C117">
-        <v>3.80782960961868E-7</v>
+        <v>8.0999999999999997E-7</v>
       </c>
       <c r="D117" t="s">
         <v>170</v>
@@ -5928,7 +5928,7 @@
         <v>284</v>
       </c>
       <c r="I117">
-        <v>5.8120106022324803E-5</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>292</v>
@@ -5954,7 +5954,7 @@
         <v>285</v>
       </c>
       <c r="I118">
-        <v>7.6608770381555798E-5</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>292</v>
@@ -5980,7 +5980,7 @@
         <v>286</v>
       </c>
       <c r="I119">
-        <v>8.2968918973667301E-5</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>292</v>
@@ -6006,7 +6006,7 @@
         <v>287</v>
       </c>
       <c r="I120">
-        <v>8.8664151395620694E-5</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>292</v>
@@ -6032,7 +6032,7 @@
         <v>288</v>
       </c>
       <c r="I121">
-        <v>8.7266319093943001E-5</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>292</v>
@@ -6058,7 +6058,7 @@
         <v>289</v>
       </c>
       <c r="I122">
-        <v>9.1299577391107603E-5</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
         <v>292</v>
@@ -6084,7 +6084,7 @@
         <v>290</v>
       </c>
       <c r="I123">
-        <v>9.8653395746025203E-5</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>292</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693AB5CB-73E8-42AE-A20F-77328987698F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEAFA7B-6AC4-47EF-94E7-7E8CA6806C6B}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple1.xlsx
+++ b/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F8F9EF-E5B7-42A0-80A6-EDAECF7FCF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D51D66A-47BE-4004-B4C6-573A5C64D5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S6aH5,S6d1217h10,S6d1217h13,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4,S1b0119h10,S1b0119h17,S3c0328h17,S4aH2,S3c0328h07,S4aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1aH3,S3c0328h16,S6d1217h15,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S1b0119h15,S3aH2,S3c0328h18,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S3aH3,S6d1217h16,S1aH6</t>
-  </si>
-  <si>
-    <t>S3c0328h06,S4aH8,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7,S1b0119h19,S6d1217h19,S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21,S1b0119h06,S1b0119h21,S2aH8,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S1b0119h22,S3c0328h04,S3c0328h23,S1aH1,S2aH7,S3c0328h01,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S3c0328h05,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S3c0328h21,S4aH1,S6aH1,S3c0328h03,S6d1217h24,S6aH8,S6d1217h01</t>
+    <t>S1aH3,S3c0328h16,S6d1217h15,S1b0119h10,S1b0119h17,S3c0328h17,S4aH2,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S1b0119h15,S3aH2,S3c0328h18,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S3aH3,S6d1217h16,S3c0328h07,S4aH5,S6aH5,S6d1217h10,S6d1217h13,S1aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4</t>
+  </si>
+  <si>
+    <t>S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21,S1b0119h06,S1b0119h21,S2aH8,S3c0328h05,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S3c0328h21,S4aH1,S6aH1,S3c0328h03,S6d1217h24,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S3c0328h06,S4aH8,S6aH8,S6d1217h01,S1b0119h22,S3c0328h04,S3c0328h23,S1aH1,S2aH7,S3c0328h01,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S1b0119h19,S6d1217h19</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S3c0328h06,S4aH8,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7,S1b0119h19,S6d1217h19,S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21,S1b0119h06,S1b0119h21,S2aH8,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S1b0119h22,S3c0328h04,S3c0328h23,S1aH1,S2aH7,S3c0328h01,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S3c0328h05,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S3c0328h21,S4aH1,S6aH1,S3c0328h03,S6d1217h24,S6aH8,S6d1217h01</v>
+        <v>S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21,S1b0119h06,S1b0119h21,S2aH8,S3c0328h05,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S3c0328h21,S4aH1,S6aH1,S3c0328h03,S6d1217h24,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S3c0328h06,S4aH8,S6aH8,S6d1217h01,S1b0119h22,S3c0328h04,S3c0328h23,S1aH1,S2aH7,S3c0328h01,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S1b0119h19,S6d1217h19</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S6aH5,S6d1217h10,S6d1217h13,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4,S1b0119h10,S1b0119h17,S3c0328h17,S4aH2,S3c0328h07,S4aH5,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1aH3,S3c0328h16,S6d1217h15,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S1b0119h15,S3aH2,S3c0328h18,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S3aH3,S6d1217h16,S1aH6</v>
+        <v>S1aH3,S3c0328h16,S6d1217h15,S1b0119h10,S1b0119h17,S3c0328h17,S4aH2,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S1b0119h15,S3aH2,S3c0328h18,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S3aH3,S6d1217h16,S3c0328h07,S4aH5,S6aH5,S6d1217h10,S6d1217h13,S1aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DA58E1-A397-45C4-8C28-482BAAA325FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC3322E-78D0-4532-BF6A-0F2DD8A973D7}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFF3C8B-CC34-4BF5-AA93-0482FD9293C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894F0159-2F4A-4B77-94CB-3E0BBEDA62D2}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2948,7 +2948,7 @@
         <v>82</v>
       </c>
       <c r="N4">
-        <v>0.10830924286565956</v>
+        <v>0.10830924286565957</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2983,7 +2983,7 @@
         <v>80</v>
       </c>
       <c r="N5">
-        <v>9.5607473481738106E-2</v>
+        <v>9.560747348173812E-2</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3018,7 +3018,7 @@
         <v>84</v>
       </c>
       <c r="N6">
-        <v>0.10847507741355955</v>
+        <v>0.10847507741355956</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>171</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="N7">
-        <v>0.10681866024325611</v>
+        <v>0.24201623957307244</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>171</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="N8">
-        <v>0.53877330642271404</v>
+        <v>0.10681866024325613</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N9">
-        <v>0.24201623957307239</v>
+        <v>0.53877330642271426</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEAFA7B-6AC4-47EF-94E7-7E8CA6806C6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E02E569-0251-4F06-96C5-A9EBA3553885}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple1.xlsx
+++ b/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D51D66A-47BE-4004-B4C6-573A5C64D5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8846453A-2175-4D50-AFA7-682B7A190589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S3c0328h16,S6d1217h15,S1b0119h10,S1b0119h17,S3c0328h17,S4aH2,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S1b0119h15,S3aH2,S3c0328h18,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S3aH3,S6d1217h16,S3c0328h07,S4aH5,S6aH5,S6d1217h10,S6d1217h13,S1aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4</t>
-  </si>
-  <si>
-    <t>S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21,S1b0119h06,S1b0119h21,S2aH8,S3c0328h05,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S3c0328h21,S4aH1,S6aH1,S3c0328h03,S6d1217h24,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S3c0328h06,S4aH8,S6aH8,S6d1217h01,S1b0119h22,S3c0328h04,S3c0328h23,S1aH1,S2aH7,S3c0328h01,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S1b0119h19,S6d1217h19</t>
+    <t>S1b0119h10,S1b0119h17,S3c0328h17,S4aH2,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S3c0328h07,S4aH5,S6aH5,S6d1217h10,S6d1217h13,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1aH6,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4,S1aH3,S3c0328h16,S6d1217h15,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S1b0119h15,S3aH2,S3c0328h18,S3aH3,S6d1217h16,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3</t>
+  </si>
+  <si>
+    <t>S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21,S3c0328h21,S4aH1,S6aH1,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S3c0328h06,S4aH8,S3c0328h23,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S1b0119h06,S1b0119h21,S2aH8,S6aH8,S6d1217h01,S1aH1,S2aH7,S3c0328h01,S1b0119h19,S6d1217h19,S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S3c0328h05,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S3c0328h03,S6d1217h24,S1b0119h22,S3c0328h04,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21,S1b0119h06,S1b0119h21,S2aH8,S3c0328h05,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S3c0328h21,S4aH1,S6aH1,S3c0328h03,S6d1217h24,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S3c0328h06,S4aH8,S6aH8,S6d1217h01,S1b0119h22,S3c0328h04,S3c0328h23,S1aH1,S2aH7,S3c0328h01,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S1b0119h19,S6d1217h19</v>
+        <v>S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21,S3c0328h21,S4aH1,S6aH1,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S3c0328h06,S4aH8,S3c0328h23,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S1b0119h06,S1b0119h21,S2aH8,S6aH8,S6d1217h01,S1aH1,S2aH7,S3c0328h01,S1b0119h19,S6d1217h19,S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S3c0328h05,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S3c0328h03,S6d1217h24,S1b0119h22,S3c0328h04,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S3c0328h16,S6d1217h15,S1b0119h10,S1b0119h17,S3c0328h17,S4aH2,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S1b0119h15,S3aH2,S3c0328h18,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S3aH3,S6d1217h16,S3c0328h07,S4aH5,S6aH5,S6d1217h10,S6d1217h13,S1aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4</v>
+        <v>S1b0119h10,S1b0119h17,S3c0328h17,S4aH2,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S3c0328h07,S4aH5,S6aH5,S6d1217h10,S6d1217h13,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1aH6,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4,S1aH3,S3c0328h16,S6d1217h15,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S1b0119h15,S3aH2,S3c0328h18,S3aH3,S6d1217h16,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC3322E-78D0-4532-BF6A-0F2DD8A973D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B3AC05-1C1C-46E4-91DE-567C451106DA}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894F0159-2F4A-4B77-94CB-3E0BBEDA62D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C58F14-15F3-4C0E-A3A8-12F536FCC814}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2948,7 +2948,7 @@
         <v>82</v>
       </c>
       <c r="N4">
-        <v>0.10830924286565957</v>
+        <v>0.10830924286565956</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2980,10 +2980,10 @@
         <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N5">
-        <v>9.560747348173812E-2</v>
+        <v>0.53877330642271404</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3015,10 +3015,10 @@
         <v>171</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>0.10847507741355956</v>
+        <v>9.5607473481738106E-2</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3050,10 +3050,10 @@
         <v>171</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N7">
-        <v>0.24201623957307244</v>
+        <v>0.10847507741355955</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3088,7 +3088,7 @@
         <v>76</v>
       </c>
       <c r="N8">
-        <v>0.10681866024325613</v>
+        <v>0.10681866024325611</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N9">
-        <v>0.53877330642271426</v>
+        <v>0.24201623957307239</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E02E569-0251-4F06-96C5-A9EBA3553885}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F644DE-0A32-43C6-ABA7-58D25098C7D7}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple1.xlsx
+++ b/VerveStacks_USA/SuppXLS/scen_tsparameters_ts_triple1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8846453A-2175-4D50-AFA7-682B7A190589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D0887F-0D2B-459A-AA47-496830E00BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -930,10 +930,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1b0119h10,S1b0119h17,S3c0328h17,S4aH2,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S3c0328h07,S4aH5,S6aH5,S6d1217h10,S6d1217h13,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1aH6,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4,S1aH3,S3c0328h16,S6d1217h15,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S1b0119h15,S3aH2,S3c0328h18,S3aH3,S6d1217h16,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3</t>
-  </si>
-  <si>
-    <t>S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21,S3c0328h21,S4aH1,S6aH1,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S3c0328h06,S4aH8,S3c0328h23,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S1b0119h06,S1b0119h21,S2aH8,S6aH8,S6d1217h01,S1aH1,S2aH7,S3c0328h01,S1b0119h19,S6d1217h19,S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S3c0328h05,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S3c0328h03,S6d1217h24,S1b0119h22,S3c0328h04,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7</t>
+    <t>S3aH3,S6d1217h16,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S3c0328h07,S4aH5,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4,S1b0119h10,S1b0119h17,S3c0328h17,S4aH2,S1b0119h15,S3aH2,S3c0328h18,S6aH5,S6d1217h10,S6d1217h13,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S1aH3,S3c0328h16,S6d1217h15,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S1aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08</t>
+  </si>
+  <si>
+    <t>S3c0328h03,S6d1217h24,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7,S1b0119h06,S1b0119h21,S2aH8,S3c0328h21,S4aH1,S6aH1,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S3c0328h23,S1b0119h19,S6d1217h19,S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S3c0328h06,S4aH8,S1aH1,S2aH7,S3c0328h01,S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S3c0328h05,S6aH8,S6d1217h01,S1b0119h22,S3c0328h04,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21,S3c0328h21,S4aH1,S6aH1,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S3c0328h06,S4aH8,S3c0328h23,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23,S1b0119h06,S1b0119h21,S2aH8,S6aH8,S6d1217h01,S1aH1,S2aH7,S3c0328h01,S1b0119h19,S6d1217h19,S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S3c0328h05,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S3c0328h03,S6d1217h24,S1b0119h22,S3c0328h04,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7</v>
+        <v>S3c0328h03,S6d1217h24,S1aH8,S1b0119h05,S1b0119h20,S3c0328h20,S5aH1,S6aH7,S1b0119h06,S1b0119h21,S2aH8,S3c0328h21,S4aH1,S6aH1,S1b0119h23,S3c0328h24,S6d1217h02,S6d1217h06,S6d1217h20,S3c0328h23,S1b0119h19,S6d1217h19,S1b0119h02,S2aH1,S3aH7,S3c0328h22,S5aH8,S6d1217h05,S6d1217h21,S1b0119h01,S1b0119h24,S3aH8,S3c0328h02,S6d1217h04,S3c0328h06,S4aH8,S1aH1,S2aH7,S3c0328h01,S1aH7,S1b0119h03,S1b0119h04,S4aH7,S5aH7,S3c0328h05,S6aH8,S6d1217h01,S1b0119h22,S3c0328h04,S3aH1,S3c0328h19,S6d1217h03,S6d1217h22,S6d1217h23</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1b0119h10,S1b0119h17,S3c0328h17,S4aH2,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S3c0328h07,S4aH5,S6aH5,S6d1217h10,S6d1217h13,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08,S1aH6,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4,S1aH3,S3c0328h16,S6d1217h15,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S1b0119h15,S3aH2,S3c0328h18,S3aH3,S6d1217h16,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3</v>
+        <v>S3aH3,S6d1217h16,S2aH6,S3aH5,S3c0328h12,S3c0328h15,S5aH3,S1aH4,S2aH2,S3c0328h10,S4aH6,S6d1217h12,S3c0328h07,S4aH5,S1b0119h08,S3c0328h13,S5aH4,S6aH3,S6aH4,S6d1217h11,S1b0119h14,S1b0119h18,S3aH4,S3c0328h14,S4aH3,S4aH4,S1b0119h10,S1b0119h17,S3c0328h17,S4aH2,S1b0119h15,S3aH2,S3c0328h18,S6aH5,S6d1217h10,S6d1217h13,S1b0119h07,S1b0119h09,S1b0119h16,S6d1217h07,S6d1217h17,S6d1217h18,S1aH3,S3c0328h16,S6d1217h15,S1aH2,S1b0119h11,S2aH3,S3aH6,S3c0328h08,S5aH6,S6aH6,S1aH6,S1aH5,S2aH4,S2aH5,S5aH2,S5aH5,S6aH2,S6d1217h09,S6d1217h14,S1b0119h12,S1b0119h13,S3c0328h09,S3c0328h11,S6d1217h08</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -2149,7 +2149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B3AC05-1C1C-46E4-91DE-567C451106DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431F9AEF-9ACC-4CF9-82C5-09845F2880A5}">
   <dimension ref="B2:F83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2866,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C58F14-15F3-4C0E-A3A8-12F536FCC814}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A1E31D-1B17-4C44-B8DC-BDB788A7A0C6}">
   <dimension ref="B2:O123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2945,10 +2945,10 @@
         <v>171</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N4">
-        <v>0.10830924286565956</v>
+        <v>0.53877330642271426</v>
       </c>
       <c r="O4" t="s">
         <v>303</v>
@@ -2980,10 +2980,10 @@
         <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>0.53877330642271404</v>
+        <v>0.10830924286565957</v>
       </c>
       <c r="O5" t="s">
         <v>303</v>
@@ -3018,7 +3018,7 @@
         <v>80</v>
       </c>
       <c r="N6">
-        <v>9.5607473481738106E-2</v>
+        <v>9.560747348173812E-2</v>
       </c>
       <c r="O6" t="s">
         <v>303</v>
@@ -3053,7 +3053,7 @@
         <v>84</v>
       </c>
       <c r="N7">
-        <v>0.10847507741355955</v>
+        <v>0.10847507741355956</v>
       </c>
       <c r="O7" t="s">
         <v>303</v>
@@ -3085,10 +3085,10 @@
         <v>171</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="N8">
-        <v>0.10681866024325611</v>
+        <v>0.24201623957307244</v>
       </c>
       <c r="O8" t="s">
         <v>303</v>
@@ -3120,10 +3120,10 @@
         <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="N9">
-        <v>0.24201623957307239</v>
+        <v>0.10681866024325613</v>
       </c>
       <c r="O9" t="s">
         <v>303</v>
@@ -6099,7 +6099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F644DE-0A32-43C6-ABA7-58D25098C7D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1391BF80-83AA-4A80-852A-CE9D0A4CDDDB}">
   <dimension ref="B2:O243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
